--- a/ALL_DATA/TIFF_sediment/sediment_prelim.xlsx
+++ b/ALL_DATA/TIFF_sediment/sediment_prelim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiff/Desktop/R Studio/APECS-master-repos/ALL_DATA/TIFF_sediment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31251DE9-522D-2B41-A825-E48A82F12045}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48222A1E-46BD-FE43-89FB-B6987B040AB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="0" windowWidth="28040" windowHeight="15760" xr2:uid="{1BF9C8A5-DB8B-6D4E-B16F-068FDF711835}"/>
   </bookViews>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFD578C-79E5-514C-89B6-0DE671F6B1F9}">
   <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3866,7 +3866,7 @@
         <v>43322</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F82" s="1">
         <v>1</v>
@@ -3903,7 +3903,7 @@
         <v>43322</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F83" s="1">
         <v>2</v>
@@ -3940,7 +3940,7 @@
         <v>43322</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F84" s="1">
         <v>3</v>
@@ -3977,7 +3977,7 @@
         <v>43322</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F85" s="1">
         <v>4</v>
@@ -4014,7 +4014,7 @@
         <v>43322</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F86" s="1">
         <v>5</v>
@@ -8746,7 +8746,7 @@
         <v>43322</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F202" s="1">
         <v>1</v>
@@ -8783,7 +8783,7 @@
         <v>43322</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F203" s="1">
         <v>2</v>
@@ -8820,7 +8820,7 @@
         <v>43322</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F204" s="1">
         <v>3</v>
@@ -8857,7 +8857,7 @@
         <v>43322</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F205" s="1">
         <v>4</v>
@@ -8894,7 +8894,7 @@
         <v>43322</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F206" s="1">
         <v>5</v>

--- a/ALL_DATA/TIFF_sediment/sediment_prelim.xlsx
+++ b/ALL_DATA/TIFF_sediment/sediment_prelim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiff/Desktop/R Studio/APECS-master-repos/ALL_DATA/TIFF_sediment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48222A1E-46BD-FE43-89FB-B6987B040AB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC21D256-710F-A743-B1BF-B6D3453BE1C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="0" windowWidth="28040" windowHeight="15760" xr2:uid="{1BF9C8A5-DB8B-6D4E-B16F-068FDF711835}"/>
+    <workbookView xWindow="3320" yWindow="0" windowWidth="28040" windowHeight="15760" xr2:uid="{1BF9C8A5-DB8B-6D4E-B16F-068FDF711835}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFD578C-79E5-514C-89B6-0DE671F6B1F9}">
   <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -795,7 +795,7 @@
         <v>43248</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>43248</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -877,7 +877,7 @@
         <v>43248</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -918,7 +918,7 @@
         <v>43248</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
@@ -959,7 +959,7 @@
         <v>43248</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
@@ -2845,7 +2845,7 @@
         <v>43276</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>43276</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F58" s="1">
         <v>2</v>
@@ -2927,7 +2927,7 @@
         <v>43276</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
@@ -2968,7 +2968,7 @@
         <v>43276</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F60" s="1">
         <v>4</v>
@@ -3009,7 +3009,7 @@
         <v>43276</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F61" s="1">
         <v>5</v>
@@ -5675,7 +5675,7 @@
         <v>43248</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F127" s="1">
         <v>1</v>
@@ -5716,7 +5716,7 @@
         <v>43248</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F128" s="1">
         <v>2</v>
@@ -5757,7 +5757,7 @@
         <v>43248</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F129" s="1">
         <v>3</v>
@@ -5798,7 +5798,7 @@
         <v>43248</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F130" s="1">
         <v>4</v>
@@ -5839,7 +5839,7 @@
         <v>43248</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F131" s="1">
         <v>5</v>
@@ -7725,7 +7725,7 @@
         <v>43276</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F177" s="1">
         <v>1</v>
@@ -7766,7 +7766,7 @@
         <v>43276</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F178" s="1">
         <v>2</v>
@@ -7807,7 +7807,7 @@
         <v>43276</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F179" s="1">
         <v>3</v>
@@ -7848,7 +7848,7 @@
         <v>43276</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F180" s="1">
         <v>4</v>
@@ -7889,7 +7889,7 @@
         <v>43276</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F181" s="1">
         <v>5</v>
@@ -10337,7 +10337,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M241">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M241">
     <sortCondition ref="E2:E241"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
